--- a/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>JS-SPA-Self-Evaluation-Protocol</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>GithHub Profile Link</t>
+  </si>
+  <si>
+    <t>https://github.com/john6tain/Issue-Tracking-System</t>
   </si>
   <si>
     <t>Days Commit in GitHub</t>
@@ -263,7 +266,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -294,6 +297,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -419,8 +426,8 @@
   </sheetPr>
   <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -487,296 +494,298 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="8"/>
+      <c r="D8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8" t="n">
-        <v>39</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="D12" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="D19" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="D28" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="D29" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="11" t="s">
+      <c r="D30" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="C11" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="D11" s="12" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="12" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="12" t="n">
-        <v>30</v>
-      </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="12" t="n">
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="D13" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D15" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D16" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="D18" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D19" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D21" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D22" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D23" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15" t="n">
-        <v>20</v>
-      </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15" t="n">
-        <v>20</v>
-      </c>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="D28" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="D29" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="D30" s="15" t="n">
-        <v>15</v>
-      </c>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D31" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="18" t="n">
+      <c r="B32" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="19" t="n">
         <f aca="false">SUM(C6:C31)</f>
-        <v>213</v>
-      </c>
-      <c r="D32" s="18" t="n">
+        <v>217</v>
+      </c>
+      <c r="D32" s="19" t="n">
         <v>330</v>
       </c>
-      <c r="E32" s="17"/>
+      <c r="E32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -788,6 +797,9 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B24:E24"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" display="https://github.com/john6tain/Issue-Tracking-System"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
